--- a/Test.xlsx
+++ b/Test.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B274"/>
+  <dimension ref="A1:B418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>|.\FunningsFjord.mesh|</t>
+          <t>|..\..\..\03_Mesh\smaller_domain_bathy_redone.mesh|</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>UTM-29</t>
+          <t>UTM-11</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-1.557793604015298 m</t>
+          <t>-10.203125 m</t>
         </is>
       </c>
     </row>
@@ -516,370 +516,365 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>σ-coordinate with 10 layers with specified distribution parameters (σ_c = 0.0, θ = 2.0, b = 0.0) (Sigma depth = 0.0 m) at the top and z-coordinate with 10 equidistant layers (constant thickness = 0.0) at the bottom</t>
+          <t>σ-coordinate with 20 layers with specified thicknesses</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Type of bathymetry adjustment</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Advanced adjustment</t>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Minimum layer thickness</t>
+          <t xml:space="preserve">    Start Time</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.0 m</t>
+          <t>2022-09-21 02:00:00 PM</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Time</t>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Time Step Interval</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>600.0 s</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Start Time</t>
+          <t xml:space="preserve">    Number of Time Steps</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1985-08-02 03:00:00 AM</t>
+          <t>6972</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Time Step Interval</t>
+          <t xml:space="preserve">    End Time</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10.0 s</t>
+          <t>2022-11-09 12:00:00 AM</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Number of Time Steps</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>43200</t>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Hydrodynamics</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">    End Time</t>
+          <t xml:space="preserve">    Governing equation</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1985-08-07 03:00:00 AM</t>
+          <t>Shallow water equations</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Hydrodynamics</t>
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Solution technique</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Governing equation</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Shallow water equations</t>
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Hydrodynamic solver</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Solution technique</t>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Time integration scheme</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Low order, fast algorithm</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Hydrodynamic solver</t>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Space integration scheme</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Low order, fast algorithm</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Time integration scheme</t>
+          <t xml:space="preserve">            Maximum time step</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Higher order</t>
+          <t>30.0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Space integration scheme</t>
+          <t xml:space="preserve">            Minimum time step</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Higher order</t>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Maximum time step</t>
+          <t xml:space="preserve">            Critical CFL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Minimum time step</t>
+          <t xml:space="preserve">            Reimann solver</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>HLLC</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Critical CFL</t>
+          <t xml:space="preserve">            Reimann factor</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Type of filter</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Explicit filter</t>
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Transport solver</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Filter coefficient</t>
+          <t xml:space="preserve">            Maximum time step</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>30.0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Reimann solver</t>
+          <t xml:space="preserve">            Minimum time step</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HLLC</t>
+          <t>0.01</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Reimann factor</t>
+          <t xml:space="preserve">            Critical CFL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Transport solver</t>
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Depth correction</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Maximum time step</t>
+          <t xml:space="preserve">        Depth correction</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>Not included</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Minimum time step</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>0.05</t>
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Flood and dry</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Critical CFL</t>
+          <t xml:space="preserve">        Flooding depth</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Depth correction</t>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Drying depth</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0.005</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Depth correction type</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Specified bed level change</t>
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Density</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Depth correction format</t>
+          <t xml:space="preserve">        Density type</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Variying in time and space</t>
+          <t>Function of temperature and salinity</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Flood and dry</t>
+          <t xml:space="preserve">        Reference Temperature</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Not included</t>
+          <t>1.5</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Density</t>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Reference Salinity</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>34.5</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Density type</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Function of temperature</t>
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Eddy viscosity</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Reference Temperature</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>10.0</t>
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Horizontal Eddy Viscosity</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Eddy viscosity</t>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Eddy type</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Smagorinsky formulation</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Horizontal Eddy Viscosity</t>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Smagorinsky coefficient format</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Constant</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Eddy type</t>
+          <t xml:space="preserve">            Smagorinsky coefficient value</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Two-equation turbulence model</t>
+          <t xml:space="preserve">0.28 </t>
         </is>
       </c>
     </row>
@@ -903,7 +898,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>10000000000</t>
         </is>
       </c>
     </row>
@@ -965,1812 +960,1767 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Quadratic drag coefficient</t>
+          <t>Roughness height</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Drag coefficient format</t>
+          <t xml:space="preserve">        Roughness height format</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Variying in time and space</t>
+          <t>Constant</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Vegetation</t>
+          <t xml:space="preserve">        Roughness height value</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Included</t>
+          <t>0.05 m</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Coriolis</t>
+          <t xml:space="preserve">    Vegetation</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>No coriolis force</t>
+          <t>Not included</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">    Coriolis</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Coriolis forcing format</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Varying coriolis forcing in space</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">    Wind forcing</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Wind forcing</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Wind forcing format</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Varying in time and space</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Neutral pressure</t>
+          <t xml:space="preserve">        Wind forcing</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1013.0 hPa</t>
+          <t>Not included</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Soft time interval</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>7200.0 s</t>
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Ice coverage</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Wind friction</t>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Ice coverage</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Not included</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Wind friction type</t>
+          <t xml:space="preserve">    Tidal potential</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Constant</t>
+          <t>Not included</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Constant wind friction</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>0.001255</t>
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Precipitation and evaporation</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Ice coverage</t>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Precipitation</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Not included</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Ice coverage type</t>
+          <t xml:space="preserve">        Evaporation</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Specified ice concentration</t>
+          <t>Not included</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Critical ice concentration</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>0.9</t>
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Infiltration</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Ice roughness height format</t>
+          <t xml:space="preserve">        Infiltration</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Constant</t>
+          <t>Not included</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Ice roughness height value</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>12.0 m</t>
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Wave radiation</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Tidal potential</t>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Wave radiation</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Not included</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Number of constituents</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>11</t>
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Initial conditions</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Constituents</t>
+          <t xml:space="preserve">        Initial condition type</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>M2 O1 S2 K2 N2 K1 P1 Q1 Mf Mm Ssa</t>
+          <t>Constant initial condition</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Precipitation and evaporation</t>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Initial surface elevation</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0.0 m</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Precipitation type</t>
+          <t xml:space="preserve">        Initial u-velocity</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Specified precipitation</t>
+          <t>0.0 m/s</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Precipitation format</t>
+          <t xml:space="preserve">        Initial v-velocity</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Constant</t>
+          <t>0.0 m/s</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Precipitation value</t>
+          <t xml:space="preserve">        Initial w-velocity</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>32.0 mm/d</t>
+          <t>0.0 m/s</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Soft time interval</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>122.0 s</t>
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Salinity and temperature</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Evaporation type</t>
+          <t xml:space="preserve">        Minimum temperature</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Computed evaporation</t>
+          <t>1.5 °C</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Infiltration</t>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Maximum temperature</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>40.0 °C</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Infiltration type</t>
+          <t xml:space="preserve">        Minimum salinity</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Net infiltration rate</t>
+          <t>0.0 PSU</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Net infiltration rate format</t>
+          <t xml:space="preserve">        Maximum salinity</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Constant in time, varying in space</t>
+          <t>34.5 PSU</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Wave radiation</t>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Time integration scheme</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Higher order</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Wave radiation</t>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Space integration scheme</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Higher order</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Wave radiation format</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Variying in time and space</t>
+      <c r="A80" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Dispersion</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Soft time interval</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>0.0 s</t>
+      <c r="A81" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Horizontal Dispersion</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Initial conditions</t>
+      <c r="A82" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Scaled eddy viscosity</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Initial condition type</t>
+          <t xml:space="preserve">                    Scaled eddy viscosity format</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Varying surface elevation in space</t>
+          <t>Constant</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Salinity and temperature</t>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    Scaled eddy viscosity value</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0 </t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Minimum temperature</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>0.0 °C</t>
+      <c r="A85" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Vertical Dispersion</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Maximum temperature</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>10000000000 °C</t>
+      <c r="A86" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Scaled eddy viscosity</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Minimum salinity</t>
+          <t xml:space="preserve">                    Scaled eddy viscosity format</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>0.0 PSU</t>
+          <t>Constant</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Maximum salinity</t>
+          <t xml:space="preserve">                    Scaled eddy viscosity value</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>10000000000 PSU</t>
+          <t xml:space="preserve">1.0 </t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Time integration scheme</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Higher order</t>
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Heat Exchange</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Space integration scheme</t>
+          <t xml:space="preserve">            Heat exchange</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Low order, fast algorithm</t>
+          <t>Not included</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Dispersion</t>
+          <t xml:space="preserve">        Precipitation - Evaporation</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Horizontal Dispersion</t>
+          <t xml:space="preserve">            Precipitation</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Scaled eddy viscosity</t>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Precipitation type</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Ambient water temperature</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                    Scaled eddy viscosity format</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Constant</t>
+      <c r="A94" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Evaporation</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    Scaled eddy viscosity value</t>
+          <t xml:space="preserve">                Evaporation type</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve">1.0 </t>
+          <t>Ambient water temperature</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Vertical Dispersion</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Not included</t>
+      <c r="A96" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Infiltration</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Heat Exchange</t>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Infiltration type</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Ambient water temperature</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Heat exchange</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Not included</t>
+      <c r="A98" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Initial Conditions</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Precipitation - Evaporation</t>
+      <c r="A99" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Temperature</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Precipitation</t>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Temperature format</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Constant</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">                Precipitation type</t>
+          <t xml:space="preserve">                Temperature value</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Specified temperature</t>
+          <t>1.5 °C</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Temperature format</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Constant</t>
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Turbulence</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Temperature value</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>0.0 °C</t>
+      <c r="A103" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Governing equation</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">                Soft time interval</t>
+          <t xml:space="preserve">            Model</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>0.0 s</t>
+          <t>k-epsilon</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Evaporation</t>
+          <t xml:space="preserve">            Empirical constants</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">                Evaporation type</t>
+          <t xml:space="preserve">                c1e</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Specified temperature</t>
+          <t>1.44</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">                Temperature format</t>
+          <t xml:space="preserve">                c2e</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Constant</t>
+          <t>1.92</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">                Temperature value</t>
+          <t xml:space="preserve">                c3e</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>0.0 °C</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">                Soft time interval</t>
+          <t xml:space="preserve">                Prandtl number</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>0.0 s</t>
+          <t>0.9</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Infiltration</t>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                cmy</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>0.09</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Infiltration type</t>
+          <t xml:space="preserve">            Minimum turbulent kinetic energy</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Specified temperature</t>
+          <t>1e-07 m²/s²</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Temperature format</t>
+          <t xml:space="preserve">            Maximum turbulent kinetic energy</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Constant</t>
+          <t>10000000000 m²/s²</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Temperature value</t>
+          <t xml:space="preserve">            Minimum dissipation of turbulent kinetic energy</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>0.0 °C</t>
+          <t>5e-10 m²/s³</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Soft time interval</t>
+          <t xml:space="preserve">            Maximum dissipation of turbulent kinetic energy</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>0.0 s</t>
+          <t>10000000000 m²/s³</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Initial Conditions</t>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Vegetation coefficient - epsilon</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1.33</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Temperature</t>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Damping</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Included</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">                Temperature format</t>
+          <t xml:space="preserve">            Vegetation coefficient - k</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Constant</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">                Temperature value</t>
+          <t xml:space="preserve">        Time integration scheme</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>10.0 °C</t>
+          <t>Low order, fast algorithm</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Turbulence</t>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Space integration scheme</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Low order, fast algorithm</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Governing equation</t>
+          <t xml:space="preserve">        Dispersion</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Model</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>k-epsilon</t>
+      <c r="A121" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Turbulent kinetic energy</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Empirical constants</t>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Horizontal sigma</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve">                c1e</t>
+          <t xml:space="preserve">                Vertical sigma</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                c2e</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>1.92</t>
+      <c r="A124" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Dissipation of turbulent kinetic energy</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">                c3e</t>
+          <t xml:space="preserve">                Horizontal sigma</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.3</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">                Prandtl number</t>
+          <t xml:space="preserve">                Vertical sigma</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>1.3</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                cmy</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>0.09</t>
+      <c r="A127" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Initial Conditions</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Minimum turbulent kinetic energy</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>1e-07 m²/s²</t>
+      <c r="A128" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Turbulent kinetic energy</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Maximum turbulent kinetic energy</t>
+          <t xml:space="preserve">                Turbulent kinetic energy format</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>10000000000 m²/s²</t>
+          <t>Constant</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Minimum dissipation of turbulent kinetic energy</t>
+          <t xml:space="preserve">                Turbulent kinetic energy value</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>5e-10 m²/s³</t>
+          <t>1e-07 m²/s²</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Maximum dissipation of turbulent kinetic energy</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>10000000000 m²/s³</t>
+      <c r="A131" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Dissipation of turbulent kinetic energy</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Vegetation coefficient - epsilon</t>
+          <t xml:space="preserve">                Dissipation of turbulent kinetic energy format</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>Constant</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Damping</t>
+          <t xml:space="preserve">                Dissipation of turbulent kinetic energy value</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Included</t>
+          <t>5e-10 m²/s³</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Vegetation coefficient - k</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>1.0</t>
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>Mud Transport</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Time integration scheme</t>
+          <t xml:space="preserve">    Number of layers</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Low order, fast algorithm</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Space integration scheme</t>
+          <t xml:space="preserve">    Number of fractions</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Low order, fast algorithm</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Dispersion</t>
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Solution technique</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Turbulent kinetic energy</t>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Time integration scheme</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Higher order</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t xml:space="preserve">                Horizontal sigma</t>
+          <t xml:space="preserve">        Space integration scheme</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>Low order, fast algorithm</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Vertical sigma</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>1.0</t>
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Water column properties</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Dissipation of turbulent kinetic energy</t>
+      <c r="A141" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Settling velocity</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t xml:space="preserve">                Horizontal sigma</t>
+          <t xml:space="preserve">            Density of sediment</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>2400.0 kg/m³</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t xml:space="preserve">                Vertical sigma</t>
+          <t xml:space="preserve">            Concentration for fluctuation</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>0.01 kg/m³</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Initial Conditions</t>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Concentration for hindered settling</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>10.0 kg/m³</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Turbulent kinetic energy</t>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Gelling point</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>50.0 kg/m³</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t xml:space="preserve">                Turbulent kinetic energy format</t>
+          <t xml:space="preserve">            Hindered settlin calculations</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Constant</t>
+          <t>Using Winterwerp formulation</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Turbulent kinetic energy value</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>1e-07 m²/s²</t>
+      <c r="A147" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Deposition</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Dissipation of turbulent kinetic energy</t>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Concnetration profile</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Teeter profile</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Dissipation of turbulent kinetic energy format</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Constant</t>
+      <c r="A149" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Viscosity and density</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t xml:space="preserve">                Dissipation of turbulent kinetic energy value</t>
+          <t xml:space="preserve">            Density of suspended sediment</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>5e-10 m²/s³</t>
+          <t>2400.0 kg/m³</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="inlineStr">
-        <is>
-          <t>Sand Transport</t>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Base in viscosity formulation</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Model definition</t>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Concnetration in viscosity formulation</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>1.0 kg/m³</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Model type</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Pure current</t>
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Bed parameters</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Layer thickness</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Constant layer thickness</t>
+      <c r="A154" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Erosion</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Forcing parameter</t>
+          <t xml:space="preserve">            Maximum concentration allowed due to erosion</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Bed shear stress</t>
+          <t>50.0 kg/m³</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Transport description</t>
+          <t xml:space="preserve">            Type of critical shear stress</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Non-equilibrium</t>
+          <t>Individual value for each fraction in each layer</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Bed load formula</t>
+          <t xml:space="preserve">        Bed roughness format</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Kovacs and Parker</t>
+          <t>Constant</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Bed load factor</t>
+          <t xml:space="preserve">        Bed roughness value</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.001 m</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Suspension load formula</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Engelund-Fredsoe</t>
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Wave forcing</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Suspension load factor</t>
+          <t xml:space="preserve">        Wave field format</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>Varying in time, constant in space</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Maximum concentration</t>
+          <t xml:space="preserve">        Soft start interval</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>10000.0 kg/m³</t>
+          <t>0.0 s</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Static friction coefficient</t>
+          <t xml:space="preserve">        Wave correction</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>Not included</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Dynamic friction coefficient</t>
+          <t xml:space="preserve">        Liquifaction</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>Not included</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Friction velocity factor</t>
+          <t xml:space="preserve">        Shear stress formulation</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>Max (Fredsoe 1981)</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Solution technique</t>
+          <t xml:space="preserve">    Dredging</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Time integration scheme</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Low order, fast algorithm</t>
+      <c r="A166" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Dredgers</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Space integration scheme</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Low order, fast algorithm</t>
+      <c r="A167" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Dredger 1</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Sediment properties</t>
+      <c r="A168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Type of spilling</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Spill distributed over a specified distance from the bottom</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Porosity</t>
+          <t xml:space="preserve">                Distance from the bottom</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.0 m</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Grain diameter format</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Constant</t>
+      <c r="A170" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Dredger 2</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Grain diameter value</t>
+          <t xml:space="preserve">                Type of spilling</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>0.2 mm</t>
+          <t>Spill in specified layer number</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Relative density</t>
+          <t xml:space="preserve">                Layer number</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Critical Shields parameter</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>0.05</t>
+      <c r="A173" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Distribution of weight of each fraction</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Bed resistence</t>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    Fraction 1</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Bed resistance type</t>
+          <t xml:space="preserve">                    Fraction 2</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Alluvial resistance</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Alluvial resistance format</t>
+          <t xml:space="preserve">                    Fraction 3</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Constant</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Alluvial resistance value</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>32.0 m^(1/3)/s</t>
+      <c r="A177" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Dredger 3</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Alluvial resistance power</t>
+          <t xml:space="preserve">                Type of spilling</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Spill in specified layer number</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Minimum alluvial resistance</t>
+          <t xml:space="preserve">                Layer number</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Maximum alluvial resistance</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>100.0</t>
+      <c r="A180" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Distribution of weight of each fraction</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Forcing</t>
+          <t xml:space="preserve">                    Fraction 1</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Not included</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Initial conditions</t>
+      <c r="A182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    Fraction 2</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Type</t>
+          <t xml:space="preserve">                    Fraction 3</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Specified concentration</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Concentration format</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Constant</t>
+      <c r="A184" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Dredger 4</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Concentration value</t>
+          <t xml:space="preserve">                Type of spilling</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>0.0 g/m³</t>
+          <t>Spill in specified layer number</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Morphology</t>
+      <c r="A186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Layer number</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Model definition</t>
+      <c r="A187" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Distribution of weight of each fraction</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Maximum bed level change</t>
+          <t xml:space="preserve">                    Fraction 1</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>1.0 m/d</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Feedback on hydrodynamic, waves, and sand transport</t>
+          <t xml:space="preserve">                    Fraction 2</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Included</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Speedup factor format</t>
+          <t xml:space="preserve">                    Fraction 3</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Constant</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Speedup factor value</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1.0 </t>
+      <c r="A191" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Dredger 5</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Soft time interval</t>
+          <t xml:space="preserve">                Type of spilling</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>0.0 s</t>
+          <t>Spill in specified layer number</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Bank erosion</t>
+      <c r="A193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Layer number</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Bank erosion</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>General slope failure including dry elements</t>
+      <c r="A194" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Distribution of weight of each fraction</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Angle of repose format</t>
+          <t xml:space="preserve">                    Fraction 1</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Constant</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Angle of repose value</t>
+          <t xml:space="preserve">                    Fraction 2</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>30.0 °</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Bed level sources</t>
+      <c r="A197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    Fraction 3</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Source 1</t>
+      <c r="A198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Update of bed</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Included</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Name</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Bed Level Source 1</t>
+      <c r="A199" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Disposal</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Type</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Dredging</t>
+      <c r="A200" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Vessels</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Maximum allowed bed level format</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Constant</t>
+      <c r="A201" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Vessel_1</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t xml:space="preserve">                Maximum allowed bed level value</t>
+          <t xml:space="preserve">                Overall area</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>0.0 m</t>
+          <t>1000.0 m²</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t xml:space="preserve">                Distribution factor format</t>
+          <t xml:space="preserve">                Opening area</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Constant</t>
+          <t>400.0 m²</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t xml:space="preserve">                Distribution factor value</t>
+          <t xml:space="preserve">                Inner area</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0 </t>
+          <t>500.0 m²</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="inlineStr">
-        <is>
-          <t>Boundaries</t>
+      <c r="A205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Unloaded draft</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1.5 m</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    CODE_1</t>
+      <c r="A206" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Distribution of weight of each fraction</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Name</t>
+          <t xml:space="preserve">                    Fraction 1</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Land Boundary</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Hydrodynamic Information</t>
+      <c r="A208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    Fraction 2</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Type</t>
+          <t xml:space="preserve">                    Fraction 3</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Land (zero velocity)</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    CODE_2</t>
+      <c r="A210" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Vessel_2</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Name</t>
+          <t xml:space="preserve">                Overall area</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NE boundary</t>
+          <t>1000.0 m²</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Hydrodynamic Information</t>
+      <c r="A212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Opening area</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>400.0 m²</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Type</t>
+          <t xml:space="preserve">                Inner area</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Specified water level</t>
+          <t>500.0 m²</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Format</t>
+          <t xml:space="preserve">                Unloaded draft</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Constant</t>
+          <t>1.5 m</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Water Level</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>0.0 m</t>
+      <c r="A215" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Distribution of weight of each fraction</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Type of soft start</t>
+          <t xml:space="preserve">                    Fraction 1</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Linear variation</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Soft time interval</t>
+          <t xml:space="preserve">                    Fraction 2</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>7200.0 s</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Reference water level</t>
+          <t xml:space="preserve">                    Fraction 3</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>0.0 m</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Coriolis correction for boundary data</t>
+          <t xml:space="preserve">        Stripping</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -2782,88 +2732,83 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Wind correction for boundary data</t>
+          <t xml:space="preserve">        Convective descent coefficient</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Included</t>
+          <t>0.0033</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Pressure correction for boundary data</t>
+          <t xml:space="preserve">        Collapse surge coefficient</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Included</t>
+          <t>0.00324</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Radiation stress correction for boundary data</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Included</t>
+      <c r="A222" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Initial conditions</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Temperature Information</t>
+          <t xml:space="preserve">        Fraction concentrations</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Type</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Zero gradient</t>
+      <c r="A224" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Fraction 1</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Turbulence Information</t>
+      <c r="A225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Concentration format</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Constant</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Turbulent kinetic energy</t>
+      <c r="A226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Concentration value</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>0.0 kg/m³</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Type</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Specified value</t>
+      <c r="A227" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Fraction 2</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t xml:space="preserve">                Turbulent kinetic energy format</t>
+          <t xml:space="preserve">                Concentration format</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -2875,243 +2820,233 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t xml:space="preserve">                Turbulent kinetic energy value</t>
+          <t xml:space="preserve">                Concentration value</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>1e-07 m²/s²</t>
+          <t>0.0 kg/m³</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Type of soft start</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Sine variation</t>
+      <c r="A230" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Fraction 3</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Dissipation of turbulent kinetic energy</t>
+      <c r="A231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Concentration format</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Constant</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t xml:space="preserve">                Type</t>
+          <t xml:space="preserve">                Concentration value</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Specified value</t>
+          <t>0.0 kg/m³</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Dissipation of turbulent kinetic energy format</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
+      <c r="A233" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Layer specifications</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Layer 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Layer thickness</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    Layer thickness format</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
         <is>
           <t>Constant</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Dissipation of turbulent kinetic energy value</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>5e-10 m²/s³</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                Type of soft start</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Sine variation</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Sand Transport Information</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Type</t>
+          <t xml:space="preserve">                    Layer thickness value</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Equilibrium conditions</t>
+          <t>0.0 m</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Morphology Information</t>
+      <c r="A238" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Fraction distribution</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Type</t>
+          <t xml:space="preserve">                    Fraction 1</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Zero sediment flux gradient for outflow, zero bed level change for inflow</t>
+          <t>Varying in space</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="1" t="inlineStr">
-        <is>
-          <t>Sources</t>
+      <c r="A240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    Fraction 2</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Varying in space</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Number of sources</t>
+          <t xml:space="preserve">                    Fraction 3</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Varying in space</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Source 1</t>
+      <c r="A242" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Layer 2</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Name</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>River</t>
+      <c r="A243" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Layer thickness</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Location</t>
+      <c r="A244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    Layer thickness format</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Constant</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Map projection</t>
+          <t xml:space="preserve">                    Layer thickness value</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>UTM-29</t>
+          <t>0.0 m</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Coordinates</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>[607460.0, 6902465.0, 'Z = -48.78749555513397 m']</t>
+      <c r="A246" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Fraction distribution</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Hydrodynamic Information</t>
+      <c r="A247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    Fraction 1</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Source type</t>
+          <t xml:space="preserve">                    Fraction 2</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Simple source</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Source format</t>
+          <t xml:space="preserve">                    Fraction 3</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Varying in time</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Temperature Information</t>
+      <c r="A250" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Layer 3</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Type</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>Excess temperature (Multiplication)</t>
+      <c r="A251" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Layer thickness</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Temperature format</t>
+          <t xml:space="preserve">                    Layer thickness format</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -3123,174 +3058,174 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Temperature value</t>
+          <t xml:space="preserve">                    Layer thickness value</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>10.0 °C</t>
+          <t>0.0 m</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Sand Transport Information</t>
+      <c r="A254" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Fraction distribution</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Type</t>
+          <t xml:space="preserve">                    Fraction 1</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Specified concentration</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Concentration format</t>
+          <t xml:space="preserve">                    Fraction 2</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Constant</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Concentration value</t>
+          <t xml:space="preserve">                    Fraction 3</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>0.0 g/m³</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Source 2</t>
+      <c r="A258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Morphology</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Morphological calculations not included</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Name</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>Source 2</t>
+      <c r="A259" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Fractions</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Location</t>
+          <t xml:space="preserve">        Fraction 1</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Map projection</t>
+          <t xml:space="preserve">            Type</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>LONG/LAT</t>
+          <t>Sand</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Coordinates</t>
+          <t xml:space="preserve">            Mean settling velocity</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, '0.0 m below surface']</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Hydrodynamic Information</t>
+      <c r="A263" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Deposition</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Source type</t>
+          <t xml:space="preserve">                Critical shear stress format</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Simple source</t>
+          <t>Constant</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Source format</t>
+          <t xml:space="preserve">                Critical shear stress value</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Constant discharge</t>
+          <t>0.07 N/m²</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Discharge</t>
+          <t xml:space="preserve">            Horizontal dispersion</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>0.0 m³/s</t>
+          <t>Not included</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        Temperature Information</t>
+      <c r="A267" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Vertical dispersion</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Type</t>
+          <t xml:space="preserve">                Formulation</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Specified temperature</t>
+          <t>Scaled eddy viscosity</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Temperature format</t>
+          <t xml:space="preserve">                Scaled eddy viscosity format</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -3302,19 +3237,19 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Temperature value</t>
+          <t xml:space="preserve">                Scaled eddy viscosity value</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>10.0 °C</t>
+          <t xml:space="preserve">1.0 </t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Sand Transport Information</t>
+          <t xml:space="preserve">        Fraction 2</t>
         </is>
       </c>
     </row>
@@ -3326,31 +3261,1534 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Specified concentration</t>
+          <t>Suspended</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t xml:space="preserve">            Concentration format</t>
+          <t xml:space="preserve">            Flocculation</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
+          <t>Included</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Settling velocity coefficient</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Settling velocity coefficient format</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
           <t>Constant</t>
         </is>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            Concentration value</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>0.0 g/m³</t>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Settling velocity coefficient value</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>0.0005 m/s</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Deposition</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Critical shear stress format</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Constant</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Critical shear stress value</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>0.07 N/m²</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Horizontal dispersion</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Formulation</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Scaled eddy viscosity</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Scaled eddy viscosity format</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Constant</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Scaled eddy viscosity value</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0 </t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Vertical dispersion</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Formulation</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Scaled eddy viscosity</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Scaled eddy viscosity format</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Constant</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Scaled eddy viscosity value</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0 </t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Fraction 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Type</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Sand</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Mean settling velocity</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>0.001</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Deposition</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Critical shear stress format</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Constant</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Critical shear stress value</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>0.07 N/m²</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Horizontal dispersion</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Formulation</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Scaled eddy viscosity</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Scaled eddy viscosity format</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Constant</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Scaled eddy viscosity value</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0 </t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Vertical dispersion</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Formulation</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Scaled eddy viscosity</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Scaled eddy viscosity format</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Constant</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Scaled eddy viscosity value</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1.0 </t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Layers</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Layer 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Erosion</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Erosion description</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Mass erosion</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Critical shear stress for each fraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    Fraction 1</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    Fraction 2</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    Fraction 3</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Density of bed layer</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Density format</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Constant</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Density value</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>180.0 kg/m³</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Transition between Layer 1 and 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Sediment transition rate format</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Constant</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Sediment transition rate value</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>0.001 kg/m²/s</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Layer 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Erosion</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Erosion description</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Hard mud</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Alpha coefficient</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Erosion coefficient format</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Constant</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Erosion coefficient value</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>5e-05 kg/m²/s</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Critical shear stress for each fraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    Fraction 1</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    Fraction 2</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    Fraction 3</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Density of bed layer</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Density format</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Constant</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Density value</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>300.0 kg/m³</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Transition between Layer 2 and 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Sediment transition rate format</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Constant</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Sediment transition rate value</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>0.001 kg/m²/s</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Layer 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Erosion</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Erosion description</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Hard mud</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Alpha coefficient</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Erosion coefficient format</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Constant</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Erosion coefficient value</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>5e-05 kg/m²/s</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Critical shear stress for each fraction</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    Fraction 1</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    Fraction 2</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    Fraction 3</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Density of bed layer</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Density format</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Constant</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Density value</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>450.0 kg/m³</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>Boundaries</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    CODE_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Name</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Land Boundary</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Hydrodynamic Information</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Type</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Land (zero normal velocity)</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Wall friction</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Not included</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    CODE_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Name</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Code 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Hydrodynamic Information</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Type</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Specified velocity</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Type of soft start</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Sine variation</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Soft time interval</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>10800.0 s</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Reference u-Velocity</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>0.0 m/s</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Reference v-Velocity</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>0.0 m/s</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Temperature Information</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Type</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Specified temperature</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Temperature format</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Constant</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Temperature value</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1.5 °C</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Type of soft start</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Sine variation</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Turbulence Information</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Turbulent kinetic energy</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Type</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Specified value</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Turbulent kinetic energy format</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Constant</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Turbulent kinetic energy value</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1e-07 m²/s²</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Type of soft start</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Sine variation</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Dissipation of turbulent kinetic energy</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Type</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Specified value</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Dissipation of turbulent kinetic energy format</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Constant</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Dissipation of turbulent kinetic energy value</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>5e-10 m²/s³</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Type of soft start</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Sine variation</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Mud Transport Information</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Fraction 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Type</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Specified concentration</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Concentration format</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Constant</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Concentration value</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>0.0 kg/m³</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Type of soft start</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Linear variation</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Fraction 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Type</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Specified concentration</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Concentration format</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Constant</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Concentration value</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>0.0 kg/m³</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Type of soft start</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Sine variation</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Fraction 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Type</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Specified concentration</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Concentration format</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Constant</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Concentration value</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>0.0 kg/m³</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Type of soft start</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Sine variation</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="inlineStr">
+        <is>
+          <t>Sources</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Number of sources</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Source 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Name</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Source 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Location</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Map projection</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>LONG/LAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Coordinates</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, '0.0 m below surface']</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Hydrodynamic Information</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Source type</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Simple source</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Source format</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Constant discharge</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Discharge</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>0.0 m³/s</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Temperature Information</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Type</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Specified temperature</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Temperature format</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Constant</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Temperature value</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>10.0 °C</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Mud transport information</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Fraction 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Type</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Excess concentration</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Concentration format</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Constant</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Concentration value</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>0.0 kg/m³</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Fraction 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Type</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Specified concentration</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Concentration format</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Constant</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Concentration value</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>0.0 kg/m³</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Fraction 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Type</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Specified concentration</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Concentration format</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Constant</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Concentration value</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>0.0 kg/m³</t>
         </is>
       </c>
     </row>
